--- a/data/trans_bre/P8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,53%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>69,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>129,05%</t>
+          <t>46,58%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>90,49%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>107,97%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 8,38</t>
+          <t>-3,14; 13,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 10,91</t>
+          <t>-4,13; 11,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 8,6</t>
+          <t>-0,8; 11,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 12,21</t>
+          <t>2,84; 13,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 19,55</t>
+          <t>0,52; 18,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 111,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 182,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 111,93</t>
+          <t>-33,42; 369,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 171,37</t>
+          <t>-32,87; 194,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>33,77; 267,26</t>
+          <t>-6,53; 141,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,92; 199,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 308,14</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-29,84%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>-23,45%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-28,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-8,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,97</t>
+          <t>-1,93; 7,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 5,18</t>
+          <t>-4,3; 3,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,95</t>
+          <t>-5,58; 1,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,32</t>
+          <t>-5,18; 0,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,47</t>
+          <t>-4,84; 3,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 86,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 106,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 17,11</t>
+          <t>-29,4; 183,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,11; 6,38</t>
+          <t>-46,47; 68,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 43,93</t>
+          <t>-54,55; 21,19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-54,15; 9,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-47,6; 54,54</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-45,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-52,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-60,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>-61,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-36,54%</t>
+          <t>-16,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-17,13%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-8,74%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -0,46</t>
+          <t>-10,89; -0,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; -1,16</t>
+          <t>-13,33; -2,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 2,28</t>
+          <t>-5,72; 2,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 2,06</t>
+          <t>-5,73; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 1,8</t>
+          <t>-6,42; 3,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-74,84; -1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-75,73; -10,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,98; 39,34</t>
+          <t>-86,7; -2,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 28,15</t>
+          <t>-84,21; -27,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 28,33</t>
+          <t>-53,24; 46,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-48,81; 35,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-47,52; 59,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>72,25%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>-16,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,54</t>
+          <t>-2,3; 3,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,14</t>
+          <t>0,96; 8,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,11</t>
+          <t>-5,13; 2,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,34</t>
+          <t>-3,63; 6,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 41,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 49,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 29,82</t>
+          <t>-25,5; 48,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 38,33</t>
+          <t>10,67; 178,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 83,95</t>
+          <t>-56,13; 53,86</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,69; 112,19</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,35%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,24%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 2,39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 3,0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 1,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 2,75</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 4,43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 37,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; 47,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-27,11; 24,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 37,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 57,23</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
